--- a/Costos/Materiales.xlsx
+++ b/Costos/Materiales.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21727"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Daniel\Unicauca\10mo Semestre\Electiva IoT\Final\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Famil\Documents\GitHub\Sistema_IoT_SeguimientoVacas\Costos\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0934FAF-A8E5-415C-832A-3F7ADD942E87}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7050"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MAteriales" sheetId="1" r:id="rId1"/>
@@ -57,13 +58,13 @@
     <t>Circuiteria</t>
   </si>
   <si>
-    <t>Giroscopio</t>
+    <t>Giroscopio (MCU6050)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -378,19 +379,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.7265625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -398,7 +399,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -406,7 +407,7 @@
         <v>75000</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -414,7 +415,7 @@
         <v>12000</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -425,7 +426,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -436,7 +437,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -444,12 +445,12 @@
         <v>8700</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>10</v>
       </c>
@@ -464,19 +465,19 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.90625" customWidth="1"/>
+    <col min="1" max="1" width="21.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>8</v>
       </c>
